--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H2">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N2">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q2">
-        <v>7.205559861446112</v>
+        <v>24.49493200215111</v>
       </c>
       <c r="R2">
-        <v>64.85003875301501</v>
+        <v>220.45438801936</v>
       </c>
       <c r="S2">
-        <v>0.003555793625292102</v>
+        <v>0.009933471176403374</v>
       </c>
       <c r="T2">
-        <v>0.003555793625292102</v>
+        <v>0.00993347117640337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H3">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q3">
-        <v>27.59000180496489</v>
+        <v>46.68056750935111</v>
       </c>
       <c r="R3">
-        <v>248.310016244684</v>
+        <v>420.1251075841599</v>
       </c>
       <c r="S3">
-        <v>0.01361509090567777</v>
+        <v>0.01893044944201394</v>
       </c>
       <c r="T3">
-        <v>0.01361509090567777</v>
+        <v>0.01893044944201394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H4">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N4">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q4">
-        <v>17.53582234345078</v>
+        <v>29.29733716443111</v>
       </c>
       <c r="R4">
-        <v>157.822401091057</v>
+        <v>263.67603447988</v>
       </c>
       <c r="S4">
-        <v>0.008653562873958704</v>
+        <v>0.01188099865893444</v>
       </c>
       <c r="T4">
-        <v>0.008653562873958702</v>
+        <v>0.01188099865893444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H5">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N5">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q5">
-        <v>6.801350392709334</v>
+        <v>9.074716843719999</v>
       </c>
       <c r="R5">
-        <v>61.21215353438401</v>
+        <v>81.67245159347999</v>
       </c>
       <c r="S5">
-        <v>0.003356324676334056</v>
+        <v>0.003680085259807969</v>
       </c>
       <c r="T5">
-        <v>0.003356324676334056</v>
+        <v>0.003680085259807968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N6">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q6">
-        <v>111.2084979773994</v>
+        <v>223.4405976752636</v>
       </c>
       <c r="R6">
-        <v>1000.876481796595</v>
+        <v>2010.965379077372</v>
       </c>
       <c r="S6">
-        <v>0.05487907612871948</v>
+        <v>0.09061224323670938</v>
       </c>
       <c r="T6">
-        <v>0.05487907612871949</v>
+        <v>0.09061224323670936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P7">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q7">
         <v>425.8159974967035</v>
@@ -883,10 +883,10 @@
         <v>3832.343977470332</v>
       </c>
       <c r="S7">
-        <v>0.2101313206136216</v>
+        <v>0.1726818811831565</v>
       </c>
       <c r="T7">
-        <v>0.2101313206136216</v>
+        <v>0.1726818811831564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N8">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O8">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P8">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q8">
-        <v>270.6427399275401</v>
+        <v>267.2477117200945</v>
       </c>
       <c r="R8">
-        <v>2435.784659347861</v>
+        <v>2405.229405480851</v>
       </c>
       <c r="S8">
-        <v>0.1335565518669909</v>
+        <v>0.1083774162385176</v>
       </c>
       <c r="T8">
-        <v>0.1335565518669909</v>
+        <v>0.1083774162385176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>61.364557</v>
       </c>
       <c r="I9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N9">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q9">
-        <v>104.9700475653813</v>
+        <v>82.77876236261899</v>
       </c>
       <c r="R9">
-        <v>944.7304280884319</v>
+        <v>745.008861263571</v>
       </c>
       <c r="S9">
-        <v>0.05180053086182845</v>
+        <v>0.03356941141437782</v>
       </c>
       <c r="T9">
-        <v>0.05180053086182845</v>
+        <v>0.03356941141437782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H10">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N10">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q10">
-        <v>128.5142907798978</v>
+        <v>303.4416115823481</v>
       </c>
       <c r="R10">
-        <v>1156.62861701908</v>
+        <v>2730.974504241132</v>
       </c>
       <c r="S10">
-        <v>0.06341912421811245</v>
+        <v>0.123055189624937</v>
       </c>
       <c r="T10">
-        <v>0.06341912421811245</v>
+        <v>0.1230551896249369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H11">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>62.452076</v>
       </c>
       <c r="O11">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P11">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q11">
-        <v>492.0796694164943</v>
+        <v>578.275809598988</v>
       </c>
       <c r="R11">
-        <v>4428.717024748448</v>
+        <v>5204.482286390892</v>
       </c>
       <c r="S11">
-        <v>0.2428310617484558</v>
+        <v>0.2345091664740452</v>
       </c>
       <c r="T11">
-        <v>0.2428310617484557</v>
+        <v>0.2345091664740451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H12">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N12">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O12">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P12">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q12">
-        <v>312.7590104093005</v>
+        <v>362.933491853159</v>
       </c>
       <c r="R12">
-        <v>2814.831093683704</v>
+        <v>3266.401426678431</v>
       </c>
       <c r="S12">
-        <v>0.1543400536322606</v>
+        <v>0.1471810323849105</v>
       </c>
       <c r="T12">
-        <v>0.1543400536322605</v>
+        <v>0.1471810323849105</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H13">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N13">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q13">
-        <v>121.3050392852053</v>
+        <v>112.416997257639</v>
       </c>
       <c r="R13">
-        <v>1091.745353566848</v>
+        <v>1011.752975318751</v>
       </c>
       <c r="S13">
-        <v>0.05986150884874818</v>
+        <v>0.04558865490618663</v>
       </c>
       <c r="T13">
-        <v>0.05986150884874818</v>
+        <v>0.04558865490618661</v>
       </c>
     </row>
   </sheetData>
